--- a/data/trans_orig/P8_2_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P8_2_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60036816-7A16-4275-A486-346A03B94735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{886B91F3-B5CF-459B-9BF2-C61B4CF2146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50B83981-6826-43AB-8941-2B40E94CFF9A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BFC64F74-DF24-47C3-A7C8-E8CDD8037F25}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>29,85%</t>
   </si>
   <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>45,58%</t>
   </si>
   <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
   </si>
   <si>
     <t>38,67%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>70,15%</t>
   </si>
   <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>54,42%</t>
   </si>
   <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
   </si>
   <si>
     <t>61,33%</t>
   </si>
   <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>6,71%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>91,35%</t>
   </si>
   <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>92,35%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>6,29%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
   </si>
   <si>
     <t>13,93%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>86,07%</t>
   </si>
   <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,217 +311,217 @@
     <t>33,17%</t>
   </si>
   <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
   </si>
   <si>
     <t>48,89%</t>
   </si>
   <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
   </si>
   <si>
     <t>42,26%</t>
   </si>
   <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
   </si>
   <si>
     <t>66,83%</t>
   </si>
   <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
   </si>
   <si>
     <t>51,11%</t>
   </si>
   <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
   </si>
   <si>
     <t>57,74%</t>
   </si>
   <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
   </si>
   <si>
     <t>89,41%</t>
   </si>
   <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
   </si>
   <si>
     <t>92,1%</t>
   </si>
   <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
   </si>
   <si>
     <t>84,42%</t>
   </si>
   <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
   </si>
   <si>
     <t>79,27%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>Población con limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
@@ -737,124 +737,124 @@
     <t>36,02%</t>
   </si>
   <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
   </si>
   <si>
     <t>47,54%</t>
   </si>
   <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
   </si>
   <si>
     <t>63,98%</t>
   </si>
   <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
   </si>
   <si>
     <t>52,46%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
   </si>
   <si>
     <t>84,74%</t>
   </si>
   <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
   </si>
   <si>
     <t>85,4%</t>
   </si>
   <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>85,07%</t>
   </si>
   <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>7,72%</t>
+    <t>7,73%</t>
   </si>
   <si>
     <t>11,17%</t>
@@ -863,19 +863,19 @@
     <t>8,13%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
   </si>
   <si>
     <t>93,08%</t>
   </si>
   <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>90,73%</t>
@@ -884,70 +884,70 @@
     <t>88,83%</t>
   </si>
   <si>
-    <t>92,28%</t>
+    <t>92,27%</t>
   </si>
   <si>
     <t>91,87%</t>
   </si>
   <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>19,87%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
   <si>
     <t>80,13%</t>
   </si>
   <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A3B880-09B5-45A2-B48D-2CFD552D77C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D411D8-5748-428B-99E2-5A53C85CDEC8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2026,7 +2026,7 @@
         <v>5285</v>
       </c>
       <c r="N14" s="7">
-        <v>5413827</v>
+        <v>5413828</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2077,7 +2077,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAE5295-17FB-406B-B1E2-0B8550887B6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20311D35-4CF3-452F-BA75-FE707DF12A2F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2861,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BB79C3-98EF-4070-8469-86FD7E7FA9DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34251111-2561-4AFF-9A7A-00727B2FB4AC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB78E97-85D1-4161-B8CA-1E5F99F8B7D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E7BD5C-25B3-4A11-8EC3-79A2D7B9DD8D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3954,7 +3954,7 @@
         <v>2369</v>
       </c>
       <c r="I8" s="7">
-        <v>1921005</v>
+        <v>1921006</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>261</v>
@@ -4005,7 +4005,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4124,7 +4124,7 @@
         <v>1509</v>
       </c>
       <c r="N11" s="7">
-        <v>1273443</v>
+        <v>1273442</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>282</v>
@@ -4175,7 +4175,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1386108</v>
+        <v>1386107</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4249,7 +4249,7 @@
         <v>2735</v>
       </c>
       <c r="D14" s="7">
-        <v>2804278</v>
+        <v>2804277</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>294</v>
@@ -4279,7 +4279,7 @@
         <v>6614</v>
       </c>
       <c r="N14" s="7">
-        <v>5748790</v>
+        <v>5748789</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>300</v>
@@ -4300,7 +4300,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3375877</v>
+        <v>3375876</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4330,7 @@
         <v>8714</v>
       </c>
       <c r="N15" s="7">
-        <v>7174607</v>
+        <v>7174606</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P8_2_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P8_2_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{886B91F3-B5CF-459B-9BF2-C61B4CF2146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AB59894-B818-49EC-8ECA-350D143564F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BFC64F74-DF24-47C3-A7C8-E8CDD8037F25}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3CF4A017-D8B5-4FBF-9505-05C9D416C7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población con limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>29,85%</t>
   </si>
   <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
   </si>
   <si>
     <t>45,58%</t>
   </si>
   <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
   </si>
   <si>
     <t>38,67%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>70,15%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
   </si>
   <si>
     <t>54,42%</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
   </si>
   <si>
     <t>61,33%</t>
   </si>
   <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>6,71%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>91,35%</t>
   </si>
   <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>92,35%</t>
   </si>
   <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,55 +197,55 @@
     <t>6,29%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>13,93%</t>
@@ -254,31 +254,31 @@
     <t>12,77%</t>
   </si>
   <si>
-    <t>15,32%</t>
+    <t>15,2%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
   </si>
   <si>
     <t>86,07%</t>
   </si>
   <si>
-    <t>84,68%</t>
+    <t>84,8%</t>
   </si>
   <si>
     <t>87,23%</t>
@@ -287,19 +287,19 @@
     <t>76,75%</t>
   </si>
   <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,370 +311,376 @@
     <t>33,17%</t>
   </si>
   <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
     <t>30,23%</t>
   </si>
   <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
   </si>
   <si>
     <t>69,77%</t>
   </si>
   <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>93,85%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
     <t>89,95%</t>
   </si>
   <si>
-    <t>93,55%</t>
+    <t>93,69%</t>
   </si>
   <si>
     <t>14,57%</t>
@@ -683,31 +689,31 @@
     <t>13,37%</t>
   </si>
   <si>
-    <t>15,81%</t>
+    <t>15,88%</t>
   </si>
   <si>
     <t>22,87%</t>
   </si>
   <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
   </si>
   <si>
     <t>18,81%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>84,19%</t>
+    <t>84,12%</t>
   </si>
   <si>
     <t>86,63%</t>
@@ -716,19 +722,19 @@
     <t>77,13%</t>
   </si>
   <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
   </si>
   <si>
     <t>81,19%</t>
   </si>
   <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
   </si>
   <si>
     <t>Población con limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
@@ -1359,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D411D8-5748-428B-99E2-5A53C85CDEC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1104FA2E-6998-4F82-823B-9DEE88E28CB9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1686,7 +1692,7 @@
         <v>1534</v>
       </c>
       <c r="D8" s="7">
-        <v>1579765</v>
+        <v>1579766</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1737,7 +1743,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1996,7 +2002,7 @@
         <v>2747</v>
       </c>
       <c r="D14" s="7">
-        <v>2820228</v>
+        <v>2820227</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2047,7 +2053,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20311D35-4CF3-452F-BA75-FE707DF12A2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C81B0C-706B-4176-9516-04AE706436ED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2861,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34251111-2561-4AFF-9A7A-00727B2FB4AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5D4BC1-1BE3-4DE1-84DC-BEA122F1BAB6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3301,7 +3307,7 @@
         <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -3310,13 +3316,13 @@
         <v>46350</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -3328,10 +3334,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3352,13 @@
         <v>504216</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>487</v>
@@ -3361,13 +3367,13 @@
         <v>502790</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>951</v>
@@ -3379,10 +3385,10 @@
         <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3456,13 @@
         <v>491981</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>699</v>
@@ -3465,13 +3471,13 @@
         <v>807718</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>1187</v>
@@ -3480,13 +3486,13 @@
         <v>1299699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3507,13 @@
         <v>2885637</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2627</v>
@@ -3516,13 +3522,13 @@
         <v>2724382</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>5354</v>
@@ -3531,13 +3537,13 @@
         <v>5610019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E7BD5C-25B3-4A11-8EC3-79A2D7B9DD8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6BC0A4-E82C-4437-9F17-08F4330418E5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3742,13 @@
         <v>195100</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>805</v>
@@ -3751,13 +3757,13 @@
         <v>459532</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1063</v>
@@ -3766,13 +3772,13 @@
         <v>654632</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3793,13 @@
         <v>346534</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>621</v>
@@ -3802,13 +3808,13 @@
         <v>375791</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1054</v>
@@ -3817,13 +3823,13 @@
         <v>722324</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3897,13 @@
         <v>330005</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>552</v>
@@ -3906,13 +3912,13 @@
         <v>328515</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>862</v>
@@ -3921,13 +3927,13 @@
         <v>658520</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3948,13 @@
         <v>1832017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2369</v>
@@ -3957,13 +3963,13 @@
         <v>1921006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>4051</v>
@@ -3972,13 +3978,13 @@
         <v>3753023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4052,13 @@
         <v>46494</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -4061,13 +4067,13 @@
         <v>66171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -4076,13 +4082,13 @@
         <v>112665</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4103,13 @@
         <v>625727</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>889</v>
@@ -4112,13 +4118,13 @@
         <v>647715</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1509</v>
@@ -4127,13 +4133,13 @@
         <v>1273442</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4207,13 @@
         <v>571599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>1472</v>
@@ -4216,13 +4222,13 @@
         <v>854218</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>2100</v>
@@ -4231,13 +4237,13 @@
         <v>1425817</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4258,13 @@
         <v>2804277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>3879</v>
@@ -4267,13 +4273,13 @@
         <v>2944512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>6614</v>
@@ -4282,13 +4288,13 @@
         <v>5748789</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
